--- a/Section 11/aula-somarproduto.xlsx
+++ b/Section 11/aula-somarproduto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Fórmulas avançadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F5AA2-5170-44E5-81EF-1DC74D8D6A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDados" sheetId="1" r:id="rId1"/>
@@ -18,13 +19,46 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BaseDados!$A$1:$E$273</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,11 +124,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -247,50 +281,48 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -300,34 +332,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,9 +376,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -365,7 +397,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -392,7 +424,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -514,14 +546,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" totalsRowShown="0" tableBorderDxfId="5">
-  <autoFilter ref="A1:E273"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TbItemVenda" displayName="TbItemVenda" ref="A1:E273" totalsRowShown="0" tableBorderDxfId="5">
+  <autoFilter ref="A1:E273" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mês" dataDxfId="4"/>
-    <tableColumn id="2" name="Ano" dataDxfId="3"/>
-    <tableColumn id="3" name="Vendedor" dataDxfId="2"/>
-    <tableColumn id="4" name="Quantidade" dataDxfId="1" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" name="Preço Unitário" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mês" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ano" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vendedor" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantidade" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Preço Unitário" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,38 +855,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -864,15 +896,15 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="32">
         <v>12</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="28">
         <v>21.97406340057637</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -882,15 +914,15 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="33">
         <v>59</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>54.121621621621621</v>
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -900,15 +932,15 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <v>77</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>37.773946360153253</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -918,15 +950,15 @@
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>33</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="29">
         <v>32.54807692307692</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -936,15 +968,15 @@
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>51</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>75.493006993006986</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -954,15 +986,15 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>100</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>37.577922077922075</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -972,15 +1004,15 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>40</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>37.851851851851855</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -990,15 +1022,15 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>88</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>45.414035087719299</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1008,15 +1040,15 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>36</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>11.488721804511279</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -1026,15 +1058,15 @@
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>50</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <v>38.138972809667671</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1044,15 +1076,15 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>75</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>69.216981132075475</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -1062,15 +1094,15 @@
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>71</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <v>39.170278637770899</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1080,15 +1112,15 @@
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>78</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>80.36363636363636</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -1098,15 +1130,15 @@
       <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>56</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="29">
         <v>45.549618320610683</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1116,15 +1148,15 @@
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>49</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="28">
         <v>53.009554140127392</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -1134,15 +1166,15 @@
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>45</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="29">
         <v>58.197718631178709</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1152,15 +1184,15 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>42</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="28">
         <v>15.84829721362229</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -1170,15 +1202,15 @@
       <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>51</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="29">
         <v>52.767441860465119</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -1188,15 +1220,15 @@
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>32</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <v>33.703947368421055</v>
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>3</v>
       </c>
@@ -1206,15 +1238,15 @@
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>25</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="29">
         <v>68.950980392156865</v>
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1224,15 +1256,15 @@
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>44</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>41.288235294117648</v>
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -1242,15 +1274,15 @@
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>38</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="29">
         <v>36.264534883720927</v>
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -1260,15 +1292,15 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>72</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>54.484496124031011</v>
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -1278,15 +1310,15 @@
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>89</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="29">
         <v>62.432234432234431</v>
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -1296,15 +1328,15 @@
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>10</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>15.904761904761905</v>
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1314,15 +1346,15 @@
       <c r="C27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>38</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="29">
         <v>21.743243243243242</v>
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -1332,15 +1364,15 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <v>24</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>32.256</v>
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -1350,15 +1382,15 @@
       <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>53</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="29">
         <v>47.20655737704918</v>
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -1368,15 +1400,15 @@
       <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>93</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>35.003236245954696</v>
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -1386,15 +1418,15 @@
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>86</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="29">
         <v>60.86451612903226</v>
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -1404,15 +1436,15 @@
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="32">
         <v>68</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>52.805860805860803</v>
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1422,15 +1454,15 @@
       <c r="C33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>92</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="29">
         <v>35.378223495702002</v>
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1440,15 +1472,15 @@
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <v>15</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>15.557620817843866</v>
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>5</v>
       </c>
@@ -1458,15 +1490,15 @@
       <c r="C35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>45</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="29">
         <v>79.475655430711612</v>
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -1476,15 +1508,15 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="32">
         <v>36</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>62.048632218844986</v>
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>5</v>
       </c>
@@ -1494,15 +1526,15 @@
       <c r="C37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>97</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="29">
         <v>41.861271676300575</v>
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -1512,15 +1544,15 @@
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="32">
         <v>84</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>24.752542372881354</v>
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -1530,15 +1562,15 @@
       <c r="C39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>52</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="29">
         <v>76.281786941580762</v>
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1548,15 +1580,15 @@
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="32">
         <v>65</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="28">
         <v>77.276119402985074</v>
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -1566,15 +1598,15 @@
       <c r="C41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>76</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="29">
         <v>22.074712643678161</v>
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -1584,15 +1616,15 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="32">
         <v>26</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="28">
         <v>12.157142857142857</v>
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>6</v>
       </c>
@@ -1602,15 +1634,15 @@
       <c r="C43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>72</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="29">
         <v>73.08754208754209</v>
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -1620,15 +1652,15 @@
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="32">
         <v>68</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="28">
         <v>26.396449704142011</v>
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>6</v>
       </c>
@@ -1638,15 +1670,15 @@
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>81</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="29">
         <v>39.005763688760808</v>
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -1656,15 +1688,15 @@
       <c r="C46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="32">
         <v>93</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="28">
         <v>39.29179331306991</v>
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -1674,15 +1706,15 @@
       <c r="C47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>28</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="29">
         <v>34.300653594771241</v>
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -1692,15 +1724,15 @@
       <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="32">
         <v>93</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="28">
         <v>42.148264984227133</v>
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>6</v>
       </c>
@@ -1710,15 +1742,15 @@
       <c r="C49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>25</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="29">
         <v>47.345821325648416</v>
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -1728,15 +1760,15 @@
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="32">
         <v>36</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="28">
         <v>23.65680473372781</v>
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -1746,15 +1778,15 @@
       <c r="C51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>67</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="29">
         <v>38.996015936254977</v>
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -1764,15 +1796,15 @@
       <c r="C52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="32">
         <v>62</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>31.617816091954023</v>
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>7</v>
       </c>
@@ -1782,15 +1814,15 @@
       <c r="C53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>20</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="29">
         <v>62.73260073260073</v>
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>7</v>
       </c>
@@ -1800,15 +1832,15 @@
       <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D54" s="32">
         <v>53</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>50.909385113268605</v>
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -1818,15 +1850,15 @@
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>68</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="29">
         <v>38.117449664429529</v>
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>7</v>
       </c>
@@ -1836,15 +1868,15 @@
       <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="32">
         <v>42</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <v>23.577464788732396</v>
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>7</v>
       </c>
@@ -1854,15 +1886,15 @@
       <c r="C57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>80</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="29">
         <v>15.302052785923754</v>
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>8</v>
       </c>
@@ -1872,15 +1904,15 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D58" s="32">
         <v>28</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="28">
         <v>14.346570397111913</v>
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>8</v>
       </c>
@@ -1890,15 +1922,15 @@
       <c r="C59" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>45</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="29">
         <v>16.324712643678161</v>
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>8</v>
       </c>
@@ -1908,15 +1940,15 @@
       <c r="C60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="34">
+      <c r="D60" s="32">
         <v>90</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="28">
         <v>62.786206896551725</v>
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -1926,15 +1958,15 @@
       <c r="C61" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>100</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="29">
         <v>15.33939393939394</v>
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>8</v>
       </c>
@@ -1944,15 +1976,15 @@
       <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="34">
+      <c r="D62" s="32">
         <v>84</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="28">
         <v>71.055921052631575</v>
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>8</v>
       </c>
@@ -1962,15 +1994,15 @@
       <c r="C63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>24</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="29">
         <v>18.298780487804876</v>
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>8</v>
       </c>
@@ -1980,15 +2012,15 @@
       <c r="C64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="34">
+      <c r="D64" s="32">
         <v>52</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="28">
         <v>53.855907780979827</v>
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>8</v>
       </c>
@@ -1998,15 +2030,15 @@
       <c r="C65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>52</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="29">
         <v>65.927444794952677</v>
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>9</v>
       </c>
@@ -2016,15 +2048,15 @@
       <c r="C66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D66" s="32">
         <v>25</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="28">
         <v>21.330769230769231</v>
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>9</v>
       </c>
@@ -2034,15 +2066,15 @@
       <c r="C67" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="33">
         <v>35</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="29">
         <v>49.180379746835442</v>
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>9</v>
       </c>
@@ -2052,15 +2084,15 @@
       <c r="C68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="34">
+      <c r="D68" s="32">
         <v>99</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="28">
         <v>39.247093023255815</v>
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>9</v>
       </c>
@@ -2070,15 +2102,15 @@
       <c r="C69" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="33">
         <v>23</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="29">
         <v>82.12</v>
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>9</v>
       </c>
@@ -2088,15 +2120,15 @@
       <c r="C70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="32">
         <v>96</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="28">
         <v>62.407766990291265</v>
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>9</v>
       </c>
@@ -2106,15 +2138,15 @@
       <c r="C71" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="33">
         <v>98</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="29">
         <v>31.837370242214533</v>
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>9</v>
       </c>
@@ -2124,15 +2156,15 @@
       <c r="C72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D72" s="32">
         <v>90</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="28">
         <v>34.403076923076924</v>
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>9</v>
       </c>
@@ -2142,15 +2174,15 @@
       <c r="C73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="33">
         <v>84</v>
       </c>
-      <c r="E73" s="31">
+      <c r="E73" s="29">
         <v>38.646376811594202</v>
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>10</v>
       </c>
@@ -2160,15 +2192,15 @@
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="34">
+      <c r="D74" s="32">
         <v>30</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="28">
         <v>34.483985765124558</v>
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>10</v>
       </c>
@@ -2178,15 +2210,15 @@
       <c r="C75" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="35">
+      <c r="D75" s="33">
         <v>26</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="29">
         <v>38.462295081967213</v>
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>10</v>
       </c>
@@ -2196,15 +2228,15 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="34">
+      <c r="D76" s="32">
         <v>91</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="28">
         <v>48.660649819494587</v>
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>10</v>
       </c>
@@ -2214,15 +2246,15 @@
       <c r="C77" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D77" s="33">
         <v>44</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="29">
         <v>16.653124999999999</v>
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>10</v>
       </c>
@@ -2232,15 +2264,15 @@
       <c r="C78" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="34">
+      <c r="D78" s="32">
         <v>74</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="28">
         <v>34.952238805970147</v>
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>10</v>
       </c>
@@ -2250,15 +2282,15 @@
       <c r="C79" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="33">
         <v>30</v>
       </c>
-      <c r="E79" s="31">
+      <c r="E79" s="29">
         <v>32.8187134502924</v>
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>10</v>
       </c>
@@ -2268,15 +2300,15 @@
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="34">
+      <c r="D80" s="32">
         <v>53</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="28">
         <v>72.477443609022558</v>
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>10</v>
       </c>
@@ -2286,15 +2318,15 @@
       <c r="C81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="33">
         <v>53</v>
       </c>
-      <c r="E81" s="31">
+      <c r="E81" s="29">
         <v>46.160583941605836</v>
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>11</v>
       </c>
@@ -2304,15 +2336,15 @@
       <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="34">
+      <c r="D82" s="32">
         <v>45</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="28">
         <v>30.36085626911315</v>
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>11</v>
       </c>
@@ -2322,15 +2354,15 @@
       <c r="C83" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="33">
         <v>57</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="29">
         <v>69.600719424460436</v>
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>11</v>
       </c>
@@ -2340,15 +2372,15 @@
       <c r="C84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="34">
+      <c r="D84" s="32">
         <v>44</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="28">
         <v>56.151335311572701</v>
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>11</v>
       </c>
@@ -2358,15 +2390,15 @@
       <c r="C85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="35">
+      <c r="D85" s="33">
         <v>92</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="29">
         <v>20.2540192926045</v>
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>11</v>
       </c>
@@ -2376,15 +2408,15 @@
       <c r="C86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="34">
+      <c r="D86" s="32">
         <v>39</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="28">
         <v>33.728434504792332</v>
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>11</v>
       </c>
@@ -2394,15 +2426,15 @@
       <c r="C87" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="35">
+      <c r="D87" s="33">
         <v>60</v>
       </c>
-      <c r="E87" s="31">
+      <c r="E87" s="29">
         <v>57.192307692307693</v>
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>11</v>
       </c>
@@ -2412,15 +2444,15 @@
       <c r="C88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="34">
+      <c r="D88" s="32">
         <v>28</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="28">
         <v>56.950980392156865</v>
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>11</v>
       </c>
@@ -2430,15 +2462,15 @@
       <c r="C89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="35">
+      <c r="D89" s="33">
         <v>74</v>
       </c>
-      <c r="E89" s="31">
+      <c r="E89" s="29">
         <v>45.662698412698411</v>
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>12</v>
       </c>
@@ -2448,15 +2480,15 @@
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="34">
+      <c r="D90" s="32">
         <v>47</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="28">
         <v>26.282467532467532</v>
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>12</v>
       </c>
@@ -2466,15 +2498,15 @@
       <c r="C91" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="35">
+      <c r="D91" s="33">
         <v>62</v>
       </c>
-      <c r="E91" s="31">
+      <c r="E91" s="29">
         <v>63.984615384615381</v>
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>12</v>
       </c>
@@ -2484,15 +2516,15 @@
       <c r="C92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="34">
+      <c r="D92" s="32">
         <v>44</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="28">
         <v>44.949458483754512</v>
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>12</v>
       </c>
@@ -2502,15 +2534,15 @@
       <c r="C93" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="35">
+      <c r="D93" s="33">
         <v>28</v>
       </c>
-      <c r="E93" s="31">
+      <c r="E93" s="29">
         <v>24.631399317406142</v>
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>12</v>
       </c>
@@ -2520,15 +2552,15 @@
       <c r="C94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="34">
+      <c r="D94" s="32">
         <v>66</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="28">
         <v>41.976271186440677</v>
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>12</v>
       </c>
@@ -2538,15 +2570,15 @@
       <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="35">
+      <c r="D95" s="33">
         <v>61</v>
       </c>
-      <c r="E95" s="31">
+      <c r="E95" s="29">
         <v>55.394321766561511</v>
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>12</v>
       </c>
@@ -2556,15 +2588,15 @@
       <c r="C96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="34">
+      <c r="D96" s="32">
         <v>28</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96" s="28">
         <v>57.011450381679388</v>
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>12</v>
       </c>
@@ -2574,15 +2606,15 @@
       <c r="C97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="35">
+      <c r="D97" s="33">
         <v>83</v>
       </c>
-      <c r="E97" s="31">
+      <c r="E97" s="29">
         <v>66.840764331210195</v>
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -2592,15 +2624,15 @@
       <c r="C98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="34">
+      <c r="D98" s="32">
         <v>22</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98" s="28">
         <v>11.635379061371841</v>
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -2610,15 +2642,15 @@
       <c r="C99" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D99" s="33">
         <v>49</v>
       </c>
-      <c r="E99" s="31">
+      <c r="E99" s="29">
         <v>60.603225806451611</v>
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -2628,15 +2660,15 @@
       <c r="C100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="34">
+      <c r="D100" s="32">
         <v>90</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="28">
         <v>25.253164556962027</v>
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -2646,15 +2678,15 @@
       <c r="C101" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="33">
         <v>60</v>
       </c>
-      <c r="E101" s="31">
+      <c r="E101" s="29">
         <v>47.585365853658537</v>
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -2664,15 +2696,15 @@
       <c r="C102" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="34">
+      <c r="D102" s="32">
         <v>35</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="28">
         <v>63.655038759689923</v>
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -2682,15 +2714,15 @@
       <c r="C103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="35">
+      <c r="D103" s="33">
         <v>67</v>
       </c>
-      <c r="E103" s="31">
+      <c r="E103" s="29">
         <v>40.134969325153371</v>
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -2700,15 +2732,15 @@
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="34">
+      <c r="D104" s="32">
         <v>30</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="28">
         <v>64.858520900321537</v>
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -2718,15 +2750,15 @@
       <c r="C105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="33">
         <v>65</v>
       </c>
-      <c r="E105" s="31">
+      <c r="E105" s="29">
         <v>81.05859375</v>
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>2</v>
       </c>
@@ -2736,15 +2768,15 @@
       <c r="C106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="34">
+      <c r="D106" s="32">
         <v>43</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="28">
         <v>17.274021352313166</v>
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>2</v>
       </c>
@@ -2754,15 +2786,15 @@
       <c r="C107" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="33">
         <v>46</v>
       </c>
-      <c r="E107" s="31">
+      <c r="E107" s="29">
         <v>28.030508474576273</v>
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -2772,15 +2804,15 @@
       <c r="C108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="34">
+      <c r="D108" s="32">
         <v>82</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="28">
         <v>38.073333333333331</v>
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>2</v>
       </c>
@@ -2790,15 +2822,15 @@
       <c r="C109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="33">
         <v>45</v>
       </c>
-      <c r="E109" s="31">
+      <c r="E109" s="29">
         <v>34.952978056426332</v>
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>2</v>
       </c>
@@ -2808,15 +2840,15 @@
       <c r="C110" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="34">
+      <c r="D110" s="32">
         <v>47</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="28">
         <v>22.915094339622641</v>
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>2</v>
       </c>
@@ -2826,15 +2858,15 @@
       <c r="C111" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="35">
+      <c r="D111" s="33">
         <v>56</v>
       </c>
-      <c r="E111" s="31">
+      <c r="E111" s="29">
         <v>62.243346007604565</v>
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>2</v>
       </c>
@@ -2844,15 +2876,15 @@
       <c r="C112" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D112" s="32">
         <v>57</v>
       </c>
-      <c r="E112" s="30">
+      <c r="E112" s="28">
         <v>72.528239202657801</v>
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>2</v>
       </c>
@@ -2862,15 +2894,15 @@
       <c r="C113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="35">
+      <c r="D113" s="33">
         <v>59</v>
       </c>
-      <c r="E113" s="31">
+      <c r="E113" s="29">
         <v>25.136094674556212</v>
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -2880,15 +2912,15 @@
       <c r="C114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="34">
+      <c r="D114" s="32">
         <v>28</v>
       </c>
-      <c r="E114" s="30">
+      <c r="E114" s="28">
         <v>21.574257425742573</v>
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>3</v>
       </c>
@@ -2898,15 +2930,15 @@
       <c r="C115" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D115" s="33">
         <v>35</v>
       </c>
-      <c r="E115" s="31">
+      <c r="E115" s="29">
         <v>34.494880546075088</v>
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -2916,15 +2948,15 @@
       <c r="C116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="34">
+      <c r="D116" s="32">
         <v>41</v>
       </c>
-      <c r="E116" s="30">
+      <c r="E116" s="28">
         <v>60.768292682926827</v>
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>3</v>
       </c>
@@ -2934,15 +2966,15 @@
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="35">
+      <c r="D117" s="33">
         <v>51</v>
       </c>
-      <c r="E117" s="31">
+      <c r="E117" s="29">
         <v>39.485294117647058</v>
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -2952,15 +2984,15 @@
       <c r="C118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="34">
+      <c r="D118" s="32">
         <v>82</v>
       </c>
-      <c r="E118" s="30">
+      <c r="E118" s="28">
         <v>19.534534534534533</v>
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>3</v>
       </c>
@@ -2970,15 +3002,15 @@
       <c r="C119" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="35">
+      <c r="D119" s="33">
         <v>26</v>
       </c>
-      <c r="E119" s="31">
+      <c r="E119" s="29">
         <v>28.647761194029851</v>
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -2988,15 +3020,15 @@
       <c r="C120" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="34">
+      <c r="D120" s="32">
         <v>54</v>
       </c>
-      <c r="E120" s="30">
+      <c r="E120" s="28">
         <v>52.413897280966765</v>
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>3</v>
       </c>
@@ -3006,15 +3038,15 @@
       <c r="C121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="35">
+      <c r="D121" s="33">
         <v>53</v>
       </c>
-      <c r="E121" s="31">
+      <c r="E121" s="29">
         <v>37.147909967845656</v>
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -3024,15 +3056,15 @@
       <c r="C122" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="34">
+      <c r="D122" s="32">
         <v>26</v>
       </c>
-      <c r="E122" s="30">
+      <c r="E122" s="28">
         <v>21.463556851311953</v>
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>4</v>
       </c>
@@ -3042,15 +3074,15 @@
       <c r="C123" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D123" s="35">
+      <c r="D123" s="33">
         <v>45</v>
       </c>
-      <c r="E123" s="31">
+      <c r="E123" s="29">
         <v>24.64</v>
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -3060,15 +3092,15 @@
       <c r="C124" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="34">
+      <c r="D124" s="32">
         <v>47</v>
       </c>
-      <c r="E124" s="30">
+      <c r="E124" s="28">
         <v>41.003039513677813</v>
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>4</v>
       </c>
@@ -3078,15 +3110,15 @@
       <c r="C125" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="35">
+      <c r="D125" s="33">
         <v>68</v>
       </c>
-      <c r="E125" s="31">
+      <c r="E125" s="29">
         <v>29.279605263157894</v>
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -3096,15 +3128,15 @@
       <c r="C126" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="34">
+      <c r="D126" s="32">
         <v>62</v>
       </c>
-      <c r="E126" s="30">
+      <c r="E126" s="28">
         <v>75.166666666666671</v>
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>4</v>
       </c>
@@ -3114,15 +3146,15 @@
       <c r="C127" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="35">
+      <c r="D127" s="33">
         <v>41</v>
       </c>
-      <c r="E127" s="31">
+      <c r="E127" s="29">
         <v>19.143695014662757</v>
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -3132,15 +3164,15 @@
       <c r="C128" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="34">
+      <c r="D128" s="32">
         <v>84</v>
       </c>
-      <c r="E128" s="30">
+      <c r="E128" s="28">
         <v>54.949367088607595</v>
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>4</v>
       </c>
@@ -3150,15 +3182,15 @@
       <c r="C129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="35">
+      <c r="D129" s="33">
         <v>96</v>
       </c>
-      <c r="E129" s="31">
+      <c r="E129" s="29">
         <v>81.135338345864668</v>
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>5</v>
       </c>
@@ -3168,15 +3200,15 @@
       <c r="C130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="34">
+      <c r="D130" s="32">
         <v>15</v>
       </c>
-      <c r="E130" s="30">
+      <c r="E130" s="28">
         <v>15.350993377483444</v>
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>5</v>
       </c>
@@ -3186,15 +3218,15 @@
       <c r="C131" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="35">
+      <c r="D131" s="33">
         <v>48</v>
       </c>
-      <c r="E131" s="31">
+      <c r="E131" s="29">
         <v>16.023880597014927</v>
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>5</v>
       </c>
@@ -3204,15 +3236,15 @@
       <c r="C132" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="34">
+      <c r="D132" s="32">
         <v>36</v>
       </c>
-      <c r="E132" s="30">
+      <c r="E132" s="28">
         <v>30.315602836879432</v>
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>5</v>
       </c>
@@ -3222,15 +3254,15 @@
       <c r="C133" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="35">
+      <c r="D133" s="33">
         <v>81</v>
       </c>
-      <c r="E133" s="31">
+      <c r="E133" s="29">
         <v>40.26627218934911</v>
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>5</v>
       </c>
@@ -3240,15 +3272,15 @@
       <c r="C134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="34">
+      <c r="D134" s="32">
         <v>65</v>
       </c>
-      <c r="E134" s="30">
+      <c r="E134" s="28">
         <v>61.794285714285714</v>
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>5</v>
       </c>
@@ -3258,15 +3290,15 @@
       <c r="C135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="35">
+      <c r="D135" s="33">
         <v>23</v>
       </c>
-      <c r="E135" s="31">
+      <c r="E135" s="29">
         <v>56.233438485804413</v>
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>5</v>
       </c>
@@ -3276,15 +3308,15 @@
       <c r="C136" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="34">
+      <c r="D136" s="32">
         <v>71</v>
       </c>
-      <c r="E136" s="30">
+      <c r="E136" s="28">
         <v>57.80952380952381</v>
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>5</v>
       </c>
@@ -3294,15 +3326,15 @@
       <c r="C137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="35">
+      <c r="D137" s="33">
         <v>88</v>
       </c>
-      <c r="E137" s="31">
+      <c r="E137" s="29">
         <v>56.89399293286219</v>
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>6</v>
       </c>
@@ -3312,15 +3344,15 @@
       <c r="C138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="34">
+      <c r="D138" s="32">
         <v>13</v>
       </c>
-      <c r="E138" s="30">
+      <c r="E138" s="28">
         <v>25.262295081967213</v>
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>6</v>
       </c>
@@ -3330,15 +3362,15 @@
       <c r="C139" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="35">
+      <c r="D139" s="33">
         <v>29</v>
       </c>
-      <c r="E139" s="31">
+      <c r="E139" s="29">
         <v>58.012903225806454</v>
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>6</v>
       </c>
@@ -3348,15 +3380,15 @@
       <c r="C140" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="34">
+      <c r="D140" s="32">
         <v>45</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E140" s="28">
         <v>45.221088435374149</v>
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>6</v>
       </c>
@@ -3366,15 +3398,15 @@
       <c r="C141" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="35">
+      <c r="D141" s="33">
         <v>35</v>
       </c>
-      <c r="E141" s="31">
+      <c r="E141" s="29">
         <v>66.258899676375407</v>
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -3384,15 +3416,15 @@
       <c r="C142" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="34">
+      <c r="D142" s="32">
         <v>60</v>
       </c>
-      <c r="E142" s="30">
+      <c r="E142" s="28">
         <v>22.26158940397351</v>
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>6</v>
       </c>
@@ -3402,15 +3434,15 @@
       <c r="C143" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="35">
+      <c r="D143" s="33">
         <v>40</v>
       </c>
-      <c r="E143" s="31">
+      <c r="E143" s="29">
         <v>63.618749999999999</v>
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -3420,15 +3452,15 @@
       <c r="C144" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="34">
+      <c r="D144" s="32">
         <v>47</v>
       </c>
-      <c r="E144" s="30">
+      <c r="E144" s="28">
         <v>16.315186246418339</v>
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>6</v>
       </c>
@@ -3438,15 +3470,15 @@
       <c r="C145" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="35">
+      <c r="D145" s="33">
         <v>68</v>
       </c>
-      <c r="E145" s="31">
+      <c r="E145" s="29">
         <v>40.734693877551024</v>
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>7</v>
       </c>
@@ -3456,15 +3488,15 @@
       <c r="C146" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="34">
+      <c r="D146" s="32">
         <v>12</v>
       </c>
-      <c r="E146" s="30">
+      <c r="E146" s="28">
         <v>30.699059561128525</v>
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>7</v>
       </c>
@@ -3474,15 +3506,15 @@
       <c r="C147" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="35">
+      <c r="D147" s="33">
         <v>79</v>
       </c>
-      <c r="E147" s="31">
+      <c r="E147" s="29">
         <v>70.14195583596215</v>
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>7</v>
       </c>
@@ -3492,15 +3524,15 @@
       <c r="C148" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="34">
+      <c r="D148" s="32">
         <v>82</v>
       </c>
-      <c r="E148" s="30">
+      <c r="E148" s="28">
         <v>60.115079365079367</v>
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>7</v>
       </c>
@@ -3510,15 +3542,15 @@
       <c r="C149" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="35">
+      <c r="D149" s="33">
         <v>54</v>
       </c>
-      <c r="E149" s="31">
+      <c r="E149" s="29">
         <v>35.788235294117648</v>
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>7</v>
       </c>
@@ -3528,15 +3560,15 @@
       <c r="C150" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="34">
+      <c r="D150" s="32">
         <v>77</v>
       </c>
-      <c r="E150" s="30">
+      <c r="E150" s="28">
         <v>31.530249110320284</v>
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>7</v>
       </c>
@@ -3546,15 +3578,15 @@
       <c r="C151" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="35">
+      <c r="D151" s="33">
         <v>27</v>
       </c>
-      <c r="E151" s="31">
+      <c r="E151" s="29">
         <v>53.439688715953309</v>
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>7</v>
       </c>
@@ -3564,15 +3596,15 @@
       <c r="C152" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D152" s="34">
+      <c r="D152" s="32">
         <v>57</v>
       </c>
-      <c r="E152" s="30">
+      <c r="E152" s="28">
         <v>47.193442622950819</v>
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>7</v>
       </c>
@@ -3582,15 +3614,15 @@
       <c r="C153" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D153" s="35">
+      <c r="D153" s="33">
         <v>100</v>
       </c>
-      <c r="E153" s="31">
+      <c r="E153" s="29">
         <v>42.742690058479532</v>
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>8</v>
       </c>
@@ -3600,15 +3632,15 @@
       <c r="C154" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D154" s="34">
+      <c r="D154" s="32">
         <v>10</v>
       </c>
-      <c r="E154" s="30">
+      <c r="E154" s="28">
         <v>13.201986754966887</v>
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>8</v>
       </c>
@@ -3618,15 +3650,15 @@
       <c r="C155" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="35">
+      <c r="D155" s="33">
         <v>42</v>
       </c>
-      <c r="E155" s="31">
+      <c r="E155" s="29">
         <v>81.199275362318843</v>
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>8</v>
       </c>
@@ -3636,15 +3668,15 @@
       <c r="C156" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="34">
+      <c r="D156" s="32">
         <v>55</v>
       </c>
-      <c r="E156" s="30">
+      <c r="E156" s="28">
         <v>72.520134228187914</v>
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>8</v>
       </c>
@@ -3654,15 +3686,15 @@
       <c r="C157" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="35">
+      <c r="D157" s="33">
         <v>40</v>
       </c>
-      <c r="E157" s="31">
+      <c r="E157" s="29">
         <v>45.306748466257666</v>
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>8</v>
       </c>
@@ -3672,15 +3704,15 @@
       <c r="C158" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="34">
+      <c r="D158" s="32">
         <v>69</v>
       </c>
-      <c r="E158" s="30">
+      <c r="E158" s="28">
         <v>44.598662207357862</v>
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>8</v>
       </c>
@@ -3690,15 +3722,15 @@
       <c r="C159" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="35">
+      <c r="D159" s="33">
         <v>69</v>
       </c>
-      <c r="E159" s="31">
+      <c r="E159" s="29">
         <v>73.268000000000001</v>
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>8</v>
       </c>
@@ -3708,15 +3740,15 @@
       <c r="C160" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D160" s="34">
+      <c r="D160" s="32">
         <v>70</v>
       </c>
-      <c r="E160" s="30">
+      <c r="E160" s="28">
         <v>26.880281690140844</v>
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>8</v>
       </c>
@@ -3726,15 +3758,15 @@
       <c r="C161" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="35">
+      <c r="D161" s="33">
         <v>88</v>
       </c>
-      <c r="E161" s="31">
+      <c r="E161" s="29">
         <v>36.514534883720927</v>
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>9</v>
       </c>
@@ -3744,15 +3776,15 @@
       <c r="C162" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="34">
+      <c r="D162" s="32">
         <v>25</v>
       </c>
-      <c r="E162" s="30">
+      <c r="E162" s="28">
         <v>20.861445783132531</v>
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>9</v>
       </c>
@@ -3762,15 +3794,15 @@
       <c r="C163" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="35">
+      <c r="D163" s="33">
         <v>31</v>
       </c>
-      <c r="E163" s="31">
+      <c r="E163" s="29">
         <v>44.297935103244839</v>
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>9</v>
       </c>
@@ -3780,15 +3812,15 @@
       <c r="C164" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="34">
+      <c r="D164" s="32">
         <v>52</v>
       </c>
-      <c r="E164" s="30">
+      <c r="E164" s="28">
         <v>62.013651877133107</v>
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>9</v>
       </c>
@@ -3798,15 +3830,15 @@
       <c r="C165" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="35">
+      <c r="D165" s="33">
         <v>45</v>
       </c>
-      <c r="E165" s="31">
+      <c r="E165" s="29">
         <v>69.972222222222229</v>
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>9</v>
       </c>
@@ -3816,15 +3848,15 @@
       <c r="C166" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="34">
+      <c r="D166" s="32">
         <v>58</v>
       </c>
-      <c r="E166" s="30">
+      <c r="E166" s="28">
         <v>60.08653846153846</v>
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>9</v>
       </c>
@@ -3834,15 +3866,15 @@
       <c r="C167" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="35">
+      <c r="D167" s="33">
         <v>98</v>
       </c>
-      <c r="E167" s="31">
+      <c r="E167" s="29">
         <v>48.802325581395351</v>
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>9</v>
       </c>
@@ -3852,15 +3884,15 @@
       <c r="C168" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D168" s="34">
+      <c r="D168" s="32">
         <v>91</v>
       </c>
-      <c r="E168" s="30">
+      <c r="E168" s="28">
         <v>63.102649006622514</v>
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>9</v>
       </c>
@@ -3870,15 +3902,15 @@
       <c r="C169" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D169" s="35">
+      <c r="D169" s="33">
         <v>94</v>
       </c>
-      <c r="E169" s="31">
+      <c r="E169" s="29">
         <v>44.600628930817614</v>
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>10</v>
       </c>
@@ -3888,15 +3920,15 @@
       <c r="C170" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D170" s="34">
+      <c r="D170" s="32">
         <v>47</v>
       </c>
-      <c r="E170" s="30">
+      <c r="E170" s="28">
         <v>31.426877470355731</v>
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>10</v>
       </c>
@@ -3906,15 +3938,15 @@
       <c r="C171" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="35">
+      <c r="D171" s="33">
         <v>67</v>
       </c>
-      <c r="E171" s="31">
+      <c r="E171" s="29">
         <v>42.003174603174607</v>
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>10</v>
       </c>
@@ -3924,15 +3956,15 @@
       <c r="C172" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="34">
+      <c r="D172" s="32">
         <v>82</v>
       </c>
-      <c r="E172" s="30">
+      <c r="E172" s="28">
         <v>48.774480712166174</v>
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>10</v>
       </c>
@@ -3942,15 +3974,15 @@
       <c r="C173" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="35">
+      <c r="D173" s="33">
         <v>60</v>
       </c>
-      <c r="E173" s="31">
+      <c r="E173" s="29">
         <v>16.415624999999999</v>
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>10</v>
       </c>
@@ -3960,15 +3992,15 @@
       <c r="C174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="34">
+      <c r="D174" s="32">
         <v>68</v>
       </c>
-      <c r="E174" s="30">
+      <c r="E174" s="28">
         <v>52.73841059602649</v>
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>10</v>
       </c>
@@ -3978,15 +4010,15 @@
       <c r="C175" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D175" s="35">
+      <c r="D175" s="33">
         <v>78</v>
       </c>
-      <c r="E175" s="31">
+      <c r="E175" s="29">
         <v>38.1</v>
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>10</v>
       </c>
@@ -3996,15 +4028,15 @@
       <c r="C176" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="34">
+      <c r="D176" s="32">
         <v>75</v>
       </c>
-      <c r="E176" s="30">
+      <c r="E176" s="28">
         <v>31.744262295081967</v>
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>10</v>
       </c>
@@ -4014,15 +4046,15 @@
       <c r="C177" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D177" s="35">
+      <c r="D177" s="33">
         <v>84</v>
       </c>
-      <c r="E177" s="31">
+      <c r="E177" s="29">
         <v>30.85171102661597</v>
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>11</v>
       </c>
@@ -4032,15 +4064,15 @@
       <c r="C178" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D178" s="34">
+      <c r="D178" s="32">
         <v>44</v>
       </c>
-      <c r="E178" s="30">
+      <c r="E178" s="28">
         <v>18.636015325670499</v>
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>11</v>
       </c>
@@ -4050,15 +4082,15 @@
       <c r="C179" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="35">
+      <c r="D179" s="33">
         <v>31</v>
       </c>
-      <c r="E179" s="31">
+      <c r="E179" s="29">
         <v>47.936936936936938</v>
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>11</v>
       </c>
@@ -4068,15 +4100,15 @@
       <c r="C180" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="34">
+      <c r="D180" s="32">
         <v>36</v>
       </c>
-      <c r="E180" s="30">
+      <c r="E180" s="28">
         <v>53.772058823529413</v>
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>11</v>
       </c>
@@ -4086,15 +4118,15 @@
       <c r="C181" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D181" s="35">
+      <c r="D181" s="33">
         <v>72</v>
       </c>
-      <c r="E181" s="31">
+      <c r="E181" s="29">
         <v>43.238095238095241</v>
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>11</v>
       </c>
@@ -4104,15 +4136,15 @@
       <c r="C182" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D182" s="34">
+      <c r="D182" s="32">
         <v>52</v>
       </c>
-      <c r="E182" s="30">
+      <c r="E182" s="28">
         <v>76.422145328719722</v>
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>11</v>
       </c>
@@ -4122,15 +4154,15 @@
       <c r="C183" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="35">
+      <c r="D183" s="33">
         <v>59</v>
       </c>
-      <c r="E183" s="31">
+      <c r="E183" s="29">
         <v>18.737037037037037</v>
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>11</v>
       </c>
@@ -4140,15 +4172,15 @@
       <c r="C184" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D184" s="34">
+      <c r="D184" s="32">
         <v>100</v>
       </c>
-      <c r="E184" s="30">
+      <c r="E184" s="28">
         <v>39.895348837209305</v>
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>11</v>
       </c>
@@ -4158,15 +4190,15 @@
       <c r="C185" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="35">
+      <c r="D185" s="33">
         <v>48</v>
       </c>
-      <c r="E185" s="31">
+      <c r="E185" s="29">
         <v>36.784615384615385</v>
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>12</v>
       </c>
@@ -4176,15 +4208,15 @@
       <c r="C186" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D186" s="34">
+      <c r="D186" s="32">
         <v>44</v>
       </c>
-      <c r="E186" s="30">
+      <c r="E186" s="28">
         <v>16.626262626262626</v>
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>12</v>
       </c>
@@ -4194,15 +4226,15 @@
       <c r="C187" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="35">
+      <c r="D187" s="33">
         <v>35</v>
       </c>
-      <c r="E187" s="31">
+      <c r="E187" s="29">
         <v>57.245901639344261</v>
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>12</v>
       </c>
@@ -4212,15 +4244,15 @@
       <c r="C188" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="34">
+      <c r="D188" s="32">
         <v>93</v>
       </c>
-      <c r="E188" s="30">
+      <c r="E188" s="28">
         <v>42.07449856733524</v>
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>12</v>
       </c>
@@ -4230,15 +4262,15 @@
       <c r="C189" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D189" s="35">
+      <c r="D189" s="33">
         <v>78</v>
       </c>
-      <c r="E189" s="31">
+      <c r="E189" s="29">
         <v>17.941176470588236</v>
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>12</v>
       </c>
@@ -4248,15 +4280,15 @@
       <c r="C190" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D190" s="34">
+      <c r="D190" s="32">
         <v>43</v>
       </c>
-      <c r="E190" s="30">
+      <c r="E190" s="28">
         <v>64.741071428571431</v>
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>12</v>
       </c>
@@ -4266,15 +4298,15 @@
       <c r="C191" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D191" s="35">
+      <c r="D191" s="33">
         <v>23</v>
       </c>
-      <c r="E191" s="31">
+      <c r="E191" s="29">
         <v>59.401197604790418</v>
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>12</v>
       </c>
@@ -4284,15 +4316,15 @@
       <c r="C192" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D192" s="34">
+      <c r="D192" s="32">
         <v>88</v>
       </c>
-      <c r="E192" s="30">
+      <c r="E192" s="28">
         <v>51.942857142857143</v>
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>12</v>
       </c>
@@ -4302,15 +4334,15 @@
       <c r="C193" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D193" s="35">
+      <c r="D193" s="33">
         <v>90</v>
       </c>
-      <c r="E193" s="31">
+      <c r="E193" s="29">
         <v>57.878980891719742</v>
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -4320,15 +4352,15 @@
       <c r="C194" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D194" s="34">
+      <c r="D194" s="32">
         <v>42</v>
       </c>
-      <c r="E194" s="30">
+      <c r="E194" s="28">
         <v>28.834355828220858</v>
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>1</v>
       </c>
@@ -4338,15 +4370,15 @@
       <c r="C195" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="35">
+      <c r="D195" s="33">
         <v>63</v>
       </c>
-      <c r="E195" s="31">
+      <c r="E195" s="29">
         <v>56.152173913043477</v>
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -4356,15 +4388,15 @@
       <c r="C196" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="34">
+      <c r="D196" s="32">
         <v>43</v>
       </c>
-      <c r="E196" s="30">
+      <c r="E196" s="28">
         <v>47.735507246376812</v>
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>1</v>
       </c>
@@ -4374,15 +4406,15 @@
       <c r="C197" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="35">
+      <c r="D197" s="33">
         <v>70</v>
       </c>
-      <c r="E197" s="31">
+      <c r="E197" s="29">
         <v>59.535384615384615</v>
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -4392,15 +4424,15 @@
       <c r="C198" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D198" s="34">
+      <c r="D198" s="32">
         <v>98</v>
       </c>
-      <c r="E198" s="30">
+      <c r="E198" s="28">
         <v>54.733333333333334</v>
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>1</v>
       </c>
@@ -4410,15 +4442,15 @@
       <c r="C199" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D199" s="35">
+      <c r="D199" s="33">
         <v>43</v>
       </c>
-      <c r="E199" s="31">
+      <c r="E199" s="29">
         <v>37.684848484848487</v>
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -4428,15 +4460,15 @@
       <c r="C200" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="34">
+      <c r="D200" s="32">
         <v>43</v>
       </c>
-      <c r="E200" s="30">
+      <c r="E200" s="28">
         <v>24.390532544378697</v>
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>1</v>
       </c>
@@ -4446,15 +4478,15 @@
       <c r="C201" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D201" s="35">
+      <c r="D201" s="33">
         <v>42</v>
       </c>
-      <c r="E201" s="31">
+      <c r="E201" s="29">
         <v>40.641104294478531</v>
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>2</v>
       </c>
@@ -4464,15 +4496,15 @@
       <c r="C202" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D202" s="34">
+      <c r="D202" s="32">
         <v>26</v>
       </c>
-      <c r="E202" s="30">
+      <c r="E202" s="28">
         <v>23.367924528301888</v>
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>2</v>
       </c>
@@ -4482,15 +4514,15 @@
       <c r="C203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D203" s="35">
+      <c r="D203" s="33">
         <v>35</v>
       </c>
-      <c r="E203" s="31">
+      <c r="E203" s="29">
         <v>26.816993464052288</v>
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -4500,15 +4532,15 @@
       <c r="C204" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="34">
+      <c r="D204" s="32">
         <v>66</v>
       </c>
-      <c r="E204" s="30">
+      <c r="E204" s="28">
         <v>48.751937984496124</v>
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>2</v>
       </c>
@@ -4518,15 +4550,15 @@
       <c r="C205" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="35">
+      <c r="D205" s="33">
         <v>32</v>
       </c>
-      <c r="E205" s="31">
+      <c r="E205" s="29">
         <v>58.104895104895107</v>
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>2</v>
       </c>
@@ -4536,15 +4568,15 @@
       <c r="C206" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="34">
+      <c r="D206" s="32">
         <v>29</v>
       </c>
-      <c r="E206" s="30">
+      <c r="E206" s="28">
         <v>78.879245283018861</v>
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>2</v>
       </c>
@@ -4554,15 +4586,15 @@
       <c r="C207" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="35">
+      <c r="D207" s="33">
         <v>98</v>
       </c>
-      <c r="E207" s="31">
+      <c r="E207" s="29">
         <v>53.617328519855597</v>
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -4572,15 +4604,15 @@
       <c r="C208" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D208" s="34">
+      <c r="D208" s="32">
         <v>35</v>
       </c>
-      <c r="E208" s="30">
+      <c r="E208" s="28">
         <v>59.993920972644375</v>
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>2</v>
       </c>
@@ -4590,15 +4622,15 @@
       <c r="C209" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D209" s="35">
+      <c r="D209" s="33">
         <v>78</v>
       </c>
-      <c r="E209" s="31">
+      <c r="E209" s="29">
         <v>23.959537572254334</v>
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>3</v>
       </c>
@@ -4608,15 +4640,15 @@
       <c r="C210" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D210" s="34">
+      <c r="D210" s="32">
         <v>34</v>
       </c>
-      <c r="E210" s="30">
+      <c r="E210" s="28">
         <v>24.19047619047619</v>
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>3</v>
       </c>
@@ -4626,15 +4658,15 @@
       <c r="C211" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D211" s="35">
+      <c r="D211" s="33">
         <v>69</v>
       </c>
-      <c r="E211" s="31">
+      <c r="E211" s="29">
         <v>29.338870431893689</v>
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -4644,15 +4676,15 @@
       <c r="C212" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="34">
+      <c r="D212" s="32">
         <v>63</v>
       </c>
-      <c r="E212" s="30">
+      <c r="E212" s="28">
         <v>51.93687707641196</v>
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>3</v>
       </c>
@@ -4662,15 +4694,15 @@
       <c r="C213" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D213" s="35">
+      <c r="D213" s="33">
         <v>95</v>
       </c>
-      <c r="E213" s="31">
+      <c r="E213" s="29">
         <v>25.751612903225805</v>
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>3</v>
       </c>
@@ -4680,15 +4712,15 @@
       <c r="C214" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D214" s="34">
+      <c r="D214" s="32">
         <v>56</v>
       </c>
-      <c r="E214" s="30">
+      <c r="E214" s="28">
         <v>48.81782945736434</v>
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
         <v>3</v>
       </c>
@@ -4698,15 +4730,15 @@
       <c r="C215" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D215" s="35">
+      <c r="D215" s="33">
         <v>42</v>
       </c>
-      <c r="E215" s="31">
+      <c r="E215" s="29">
         <v>46.286206896551725</v>
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>3</v>
       </c>
@@ -4716,15 +4748,15 @@
       <c r="C216" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D216" s="34">
+      <c r="D216" s="32">
         <v>89</v>
       </c>
-      <c r="E216" s="30">
+      <c r="E216" s="28">
         <v>30.69283276450512</v>
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>3</v>
       </c>
@@ -4734,15 +4766,15 @@
       <c r="C217" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D217" s="35">
+      <c r="D217" s="33">
         <v>46</v>
       </c>
-      <c r="E217" s="31">
+      <c r="E217" s="29">
         <v>55.388235294117649</v>
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>4</v>
       </c>
@@ -4752,15 +4784,15 @@
       <c r="C218" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D218" s="34">
+      <c r="D218" s="32">
         <v>21</v>
       </c>
-      <c r="E218" s="30">
+      <c r="E218" s="28">
         <v>27.061776061776062</v>
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>4</v>
       </c>
@@ -4770,15 +4802,15 @@
       <c r="C219" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D219" s="35">
+      <c r="D219" s="33">
         <v>56</v>
       </c>
-      <c r="E219" s="31">
+      <c r="E219" s="29">
         <v>22.00380228136882</v>
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>4</v>
       </c>
@@ -4788,15 +4820,15 @@
       <c r="C220" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="34">
+      <c r="D220" s="32">
         <v>65</v>
       </c>
-      <c r="E220" s="30">
+      <c r="E220" s="28">
         <v>36.92</v>
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>4</v>
       </c>
@@ -4806,15 +4838,15 @@
       <c r="C221" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D221" s="35">
+      <c r="D221" s="33">
         <v>91</v>
       </c>
-      <c r="E221" s="31">
+      <c r="E221" s="29">
         <v>29.494661921708186</v>
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>4</v>
       </c>
@@ -4824,15 +4856,15 @@
       <c r="C222" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="34">
+      <c r="D222" s="32">
         <v>53</v>
       </c>
-      <c r="E222" s="30">
+      <c r="E222" s="28">
         <v>61.828571428571429</v>
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>4</v>
       </c>
@@ -4842,15 +4874,15 @@
       <c r="C223" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D223" s="35">
+      <c r="D223" s="33">
         <v>40</v>
       </c>
-      <c r="E223" s="31">
+      <c r="E223" s="29">
         <v>22.421404682274247</v>
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>4</v>
       </c>
@@ -4860,15 +4892,15 @@
       <c r="C224" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D224" s="34">
+      <c r="D224" s="32">
         <v>94</v>
       </c>
-      <c r="E224" s="30">
+      <c r="E224" s="28">
         <v>53</v>
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>4</v>
       </c>
@@ -4878,15 +4910,15 @@
       <c r="C225" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D225" s="35">
+      <c r="D225" s="33">
         <v>71</v>
       </c>
-      <c r="E225" s="31">
+      <c r="E225" s="29">
         <v>84.052830188679252</v>
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>5</v>
       </c>
@@ -4896,15 +4928,15 @@
       <c r="C226" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D226" s="34">
+      <c r="D226" s="32">
         <v>28</v>
       </c>
-      <c r="E226" s="30">
+      <c r="E226" s="28">
         <v>29.801498127340825</v>
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>5</v>
       </c>
@@ -4914,15 +4946,15 @@
       <c r="C227" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D227" s="35">
+      <c r="D227" s="33">
         <v>33</v>
       </c>
-      <c r="E227" s="31">
+      <c r="E227" s="29">
         <v>36.266932270916335</v>
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>5</v>
       </c>
@@ -4932,15 +4964,15 @@
       <c r="C228" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="34">
+      <c r="D228" s="32">
         <v>63</v>
       </c>
-      <c r="E228" s="30">
+      <c r="E228" s="28">
         <v>43.200598802395213</v>
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>5</v>
       </c>
@@ -4950,15 +4982,15 @@
       <c r="C229" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D229" s="35">
+      <c r="D229" s="33">
         <v>92</v>
       </c>
-      <c r="E229" s="31">
+      <c r="E229" s="29">
         <v>55.630434782608695</v>
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>5</v>
       </c>
@@ -4968,15 +5000,15 @@
       <c r="C230" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="34">
+      <c r="D230" s="32">
         <v>67</v>
       </c>
-      <c r="E230" s="30">
+      <c r="E230" s="28">
         <v>64.98571428571428</v>
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>5</v>
       </c>
@@ -4986,15 +5018,15 @@
       <c r="C231" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="35">
+      <c r="D231" s="33">
         <v>27</v>
       </c>
-      <c r="E231" s="31">
+      <c r="E231" s="29">
         <v>25.536000000000001</v>
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>5</v>
       </c>
@@ -5004,15 +5036,15 @@
       <c r="C232" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D232" s="34">
+      <c r="D232" s="32">
         <v>74</v>
       </c>
-      <c r="E232" s="30">
+      <c r="E232" s="28">
         <v>49.468992248062015</v>
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>5</v>
       </c>
@@ -5022,15 +5054,15 @@
       <c r="C233" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D233" s="35">
+      <c r="D233" s="33">
         <v>48</v>
       </c>
-      <c r="E233" s="31">
+      <c r="E233" s="29">
         <v>16.20552147239264</v>
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>6</v>
       </c>
@@ -5040,15 +5072,15 @@
       <c r="C234" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D234" s="34">
+      <c r="D234" s="32">
         <v>33</v>
       </c>
-      <c r="E234" s="30">
+      <c r="E234" s="28">
         <v>25.603124999999999</v>
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>6</v>
       </c>
@@ -5058,15 +5090,15 @@
       <c r="C235" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D235" s="35">
+      <c r="D235" s="33">
         <v>44</v>
       </c>
-      <c r="E235" s="31">
+      <c r="E235" s="29">
         <v>62.428571428571431</v>
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>6</v>
       </c>
@@ -5076,15 +5108,15 @@
       <c r="C236" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="34">
+      <c r="D236" s="32">
         <v>46</v>
       </c>
-      <c r="E236" s="30">
+      <c r="E236" s="28">
         <v>60.272727272727273</v>
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>6</v>
       </c>
@@ -5094,15 +5126,15 @@
       <c r="C237" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D237" s="35">
+      <c r="D237" s="33">
         <v>63</v>
       </c>
-      <c r="E237" s="31">
+      <c r="E237" s="29">
         <v>60.545454545454547</v>
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>6</v>
       </c>
@@ -5112,15 +5144,15 @@
       <c r="C238" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="34">
+      <c r="D238" s="32">
         <v>66</v>
       </c>
-      <c r="E238" s="30">
+      <c r="E238" s="28">
         <v>48.421828908554573</v>
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>6</v>
       </c>
@@ -5130,15 +5162,15 @@
       <c r="C239" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="35">
+      <c r="D239" s="33">
         <v>47</v>
       </c>
-      <c r="E239" s="31">
+      <c r="E239" s="29">
         <v>77.172549019607843</v>
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>6</v>
       </c>
@@ -5148,15 +5180,15 @@
       <c r="C240" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D240" s="34">
+      <c r="D240" s="32">
         <v>72</v>
       </c>
-      <c r="E240" s="30">
+      <c r="E240" s="28">
         <v>59.370370370370374</v>
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>6</v>
       </c>
@@ -5166,15 +5198,15 @@
       <c r="C241" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D241" s="35">
+      <c r="D241" s="33">
         <v>36</v>
       </c>
-      <c r="E241" s="31">
+      <c r="E241" s="29">
         <v>25.359712230215827</v>
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>7</v>
       </c>
@@ -5184,15 +5216,15 @@
       <c r="C242" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D242" s="34">
+      <c r="D242" s="32">
         <v>25</v>
       </c>
-      <c r="E242" s="30">
+      <c r="E242" s="28">
         <v>24.891156462585034</v>
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>7</v>
       </c>
@@ -5202,15 +5234,15 @@
       <c r="C243" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D243" s="35">
+      <c r="D243" s="33">
         <v>33</v>
       </c>
-      <c r="E243" s="31">
+      <c r="E243" s="29">
         <v>36.003412969283275</v>
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>7</v>
       </c>
@@ -5220,15 +5252,15 @@
       <c r="C244" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D244" s="34">
+      <c r="D244" s="32">
         <v>87</v>
       </c>
-      <c r="E244" s="30">
+      <c r="E244" s="28">
         <v>27.651651651651651</v>
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>7</v>
       </c>
@@ -5238,15 +5270,15 @@
       <c r="C245" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D245" s="35">
+      <c r="D245" s="33">
         <v>39</v>
       </c>
-      <c r="E245" s="31">
+      <c r="E245" s="29">
         <v>31.743034055727556</v>
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>7</v>
       </c>
@@ -5256,15 +5288,15 @@
       <c r="C246" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="34">
+      <c r="D246" s="32">
         <v>78</v>
       </c>
-      <c r="E246" s="30">
+      <c r="E246" s="28">
         <v>33.79874213836478</v>
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>7</v>
       </c>
@@ -5274,15 +5306,15 @@
       <c r="C247" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D247" s="35">
+      <c r="D247" s="33">
         <v>77</v>
       </c>
-      <c r="E247" s="31">
+      <c r="E247" s="29">
         <v>51.155115511551152</v>
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>7</v>
       </c>
@@ -5292,15 +5324,15 @@
       <c r="C248" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D248" s="34">
+      <c r="D248" s="32">
         <v>58</v>
       </c>
-      <c r="E248" s="30">
+      <c r="E248" s="28">
         <v>31.906354515050168</v>
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>7</v>
       </c>
@@ -5310,15 +5342,15 @@
       <c r="C249" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D249" s="35">
+      <c r="D249" s="33">
         <v>66</v>
       </c>
-      <c r="E249" s="31">
+      <c r="E249" s="29">
         <v>17.03095975232198</v>
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -5328,15 +5360,15 @@
       <c r="C250" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D250" s="34">
+      <c r="D250" s="32">
         <v>31</v>
       </c>
-      <c r="E250" s="30">
+      <c r="E250" s="28">
         <v>38.694444444444443</v>
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>8</v>
       </c>
@@ -5346,15 +5378,15 @@
       <c r="C251" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D251" s="35">
+      <c r="D251" s="33">
         <v>74</v>
       </c>
-      <c r="E251" s="31">
+      <c r="E251" s="29">
         <v>36.099099099099099</v>
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -5364,15 +5396,15 @@
       <c r="C252" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D252" s="34">
+      <c r="D252" s="32">
         <v>90</v>
       </c>
-      <c r="E252" s="30">
+      <c r="E252" s="28">
         <v>61.135646687697161</v>
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>8</v>
       </c>
@@ -5382,15 +5414,15 @@
       <c r="C253" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D253" s="35">
+      <c r="D253" s="33">
         <v>30</v>
       </c>
-      <c r="E253" s="31">
+      <c r="E253" s="29">
         <v>40.411347517730498</v>
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>8</v>
       </c>
@@ -5400,15 +5432,15 @@
       <c r="C254" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D254" s="34">
+      <c r="D254" s="32">
         <v>25</v>
       </c>
-      <c r="E254" s="30">
+      <c r="E254" s="28">
         <v>34.090566037735847</v>
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>8</v>
       </c>
@@ -5418,15 +5450,15 @@
       <c r="C255" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D255" s="35">
+      <c r="D255" s="33">
         <v>91</v>
       </c>
-      <c r="E255" s="31">
+      <c r="E255" s="29">
         <v>75.767527675276753</v>
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -5436,15 +5468,15 @@
       <c r="C256" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D256" s="34">
+      <c r="D256" s="32">
         <v>46</v>
       </c>
-      <c r="E256" s="30">
+      <c r="E256" s="28">
         <v>59.245614035087719</v>
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>8</v>
       </c>
@@ -5454,15 +5486,15 @@
       <c r="C257" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D257" s="35">
+      <c r="D257" s="33">
         <v>58</v>
       </c>
-      <c r="E257" s="31">
+      <c r="E257" s="29">
         <v>66.517460317460319</v>
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>9</v>
       </c>
@@ -5472,15 +5504,15 @@
       <c r="C258" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D258" s="34">
+      <c r="D258" s="32">
         <v>45</v>
       </c>
-      <c r="E258" s="30">
+      <c r="E258" s="28">
         <v>12.959375</v>
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>9</v>
       </c>
@@ -5490,15 +5522,15 @@
       <c r="C259" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D259" s="35">
+      <c r="D259" s="33">
         <v>53</v>
       </c>
-      <c r="E259" s="31">
+      <c r="E259" s="29">
         <v>67.256916996047437</v>
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>9</v>
       </c>
@@ -5508,15 +5540,15 @@
       <c r="C260" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D260" s="34">
+      <c r="D260" s="32">
         <v>60</v>
       </c>
-      <c r="E260" s="30">
+      <c r="E260" s="28">
         <v>20.346863468634687</v>
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>9</v>
       </c>
@@ -5526,15 +5558,15 @@
       <c r="C261" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D261" s="35">
+      <c r="D261" s="33">
         <v>35</v>
       </c>
-      <c r="E261" s="31">
+      <c r="E261" s="29">
         <v>65.816949152542378</v>
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>9</v>
       </c>
@@ -5544,15 +5576,15 @@
       <c r="C262" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D262" s="34">
+      <c r="D262" s="32">
         <v>41</v>
       </c>
-      <c r="E262" s="30">
+      <c r="E262" s="28">
         <v>39</v>
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>9</v>
       </c>
@@ -5562,15 +5594,15 @@
       <c r="C263" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D263" s="35">
+      <c r="D263" s="33">
         <v>69</v>
       </c>
-      <c r="E263" s="31">
+      <c r="E263" s="29">
         <v>61.006920415224911</v>
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>9</v>
       </c>
@@ -5580,15 +5612,15 @@
       <c r="C264" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D264" s="34">
+      <c r="D264" s="32">
         <v>67</v>
       </c>
-      <c r="E264" s="30">
+      <c r="E264" s="28">
         <v>35.710526315789473</v>
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>9</v>
       </c>
@@ -5598,15 +5630,15 @@
       <c r="C265" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D265" s="35">
+      <c r="D265" s="33">
         <v>68</v>
       </c>
-      <c r="E265" s="31">
+      <c r="E265" s="29">
         <v>75.885496183206101</v>
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>10</v>
       </c>
@@ -5616,15 +5648,15 @@
       <c r="C266" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D266" s="34">
+      <c r="D266" s="32">
         <v>40</v>
       </c>
-      <c r="E266" s="30">
+      <c r="E266" s="28">
         <v>22.527868852459015</v>
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>10</v>
       </c>
@@ -5634,15 +5666,15 @@
       <c r="C267" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D267" s="35">
+      <c r="D267" s="33">
         <v>54</v>
       </c>
-      <c r="E267" s="31">
+      <c r="E267" s="29">
         <v>47.44027303754266</v>
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>10</v>
       </c>
@@ -5652,15 +5684,15 @@
       <c r="C268" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D268" s="34">
+      <c r="D268" s="32">
         <v>92</v>
       </c>
-      <c r="E268" s="30">
+      <c r="E268" s="28">
         <v>57.996845425867505</v>
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>10</v>
       </c>
@@ -5670,15 +5702,15 @@
       <c r="C269" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D269" s="35">
+      <c r="D269" s="33">
         <v>55</v>
       </c>
-      <c r="E269" s="31">
+      <c r="E269" s="29">
         <v>76.206896551724142</v>
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>10</v>
       </c>
@@ -5688,15 +5720,15 @@
       <c r="C270" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="34">
+      <c r="D270" s="32">
         <v>78</v>
       </c>
-      <c r="E270" s="30">
+      <c r="E270" s="28">
         <v>22.76872964169381</v>
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>10</v>
       </c>
@@ -5706,15 +5738,15 @@
       <c r="C271" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D271" s="35">
+      <c r="D271" s="33">
         <v>96</v>
       </c>
-      <c r="E271" s="31">
+      <c r="E271" s="29">
         <v>45.064516129032256</v>
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>10</v>
       </c>
@@ -5724,15 +5756,15 @@
       <c r="C272" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D272" s="34">
+      <c r="D272" s="32">
         <v>95</v>
       </c>
-      <c r="E272" s="30">
+      <c r="E272" s="28">
         <v>62.964179104477608</v>
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>10</v>
       </c>
@@ -5742,10 +5774,10 @@
       <c r="C273" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D273" s="35">
+      <c r="D273" s="33">
         <v>82</v>
       </c>
-      <c r="E273" s="31">
+      <c r="E273" s="29">
         <v>67.870090634441084</v>
       </c>
       <c r="F273" s="7"/>
@@ -5759,27 +5791,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="8"/>
@@ -5794,7 +5826,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
@@ -5810,7 +5842,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -5825,30 +5857,30 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5858,140 +5890,146 @@
       <c r="D6" s="12">
         <v>21.97406340057637</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="38">
-        <v>2016</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="36">
+        <v>2016</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="38">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="J6" s="36">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>59</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>54.121621621621621</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="39"/>
-      <c r="I7" s="25" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>77</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>37.773946360153253</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>33</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>32.54807692307692</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="I9" s="26" t="s">
+      <c r="G9" s="25" cm="1">
+        <f t="array" ref="G9">-SUMPRODUCT(-(TbItemVenda[Vendedor]=$F$6)*(TbItemVenda[Ano]=$G$6),TbItemVenda[Quantidade],TbItemVenda[Preço Unitário])</f>
+        <v>7474.0611257348191</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>51</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>75.493006993006986</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="29"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19">
+        <f>SUMPRODUCT(C6:C10,D6:D10)</f>
+        <v>11289.688201319288</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="27"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="29"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="27"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="29"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F17" s="27"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19" s="7"/>
     </row>
   </sheetData>
@@ -6001,7 +6039,7 @@
     <mergeCell ref="F6:F7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7 I6 I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7 I6 I7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Anakin,Barry Allen,Kal-El,Logan,Padmé Amidala,Rachel Roth,Victor Von Doom,Wanda Maximoff"</formula1>
     </dataValidation>
   </dataValidations>
